--- a/kuvien-valinta.xlsx
+++ b/kuvien-valinta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arttu/dev-unity/jouko-koskinen-dodeka-2026/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2776BE3-ED79-A045-BD6B-A819549740FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCA7D9C-F2F8-7D40-9335-A69622B4B09D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19460" yWindow="500" windowWidth="28040" windowHeight="17440" xr2:uid="{8B88EB40-C064-0141-9666-947410857A57}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="11280" windowHeight="10740" xr2:uid="{8B88EB40-C064-0141-9666-947410857A57}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -449,10 +449,13 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
@@ -625,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="E11">
         <f>30*B11</f>
@@ -633,7 +636,7 @@
       </c>
       <c r="F11">
         <f>30*C11</f>
-        <v>720</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
